--- a/tx_fifo_timing_mux2_invz_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux2_invz_tsmc2p_meas.xlsx
@@ -676,13 +676,13 @@
         <v>24</v>
       </c>
       <c r="L2">
-        <v>2.73577E-11</v>
+        <v>-9.85221E-11</v>
       </c>
       <c r="M2">
-        <v>3.032E-11</v>
+        <v>1.47987E-10</v>
       </c>
       <c r="N2">
-        <v>2.15307E-08</v>
+        <v>2.23718E-08</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -720,13 +720,13 @@
         <v>24</v>
       </c>
       <c r="L3">
-        <v>2.69556E-11</v>
+        <v>-9.893780000000001E-11</v>
       </c>
       <c r="M3">
-        <v>2.99379E-11</v>
+        <v>1.47893E-10</v>
       </c>
       <c r="N3">
-        <v>3.78376E-09</v>
+        <v>3.73713E-09</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -764,13 +764,13 @@
         <v>24</v>
       </c>
       <c r="L4">
-        <v>2.80105E-11</v>
+        <v>-9.78984E-11</v>
       </c>
       <c r="M4">
-        <v>3.06781E-11</v>
+        <v>1.48022E-10</v>
       </c>
       <c r="N4">
-        <v>3.03645E-07</v>
+        <v>3.19356E-07</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -808,13 +808,13 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>3.95795E-11</v>
+        <v>-8.51862E-11</v>
       </c>
       <c r="M5">
-        <v>4.4063E-11</v>
+        <v>1.59194E-10</v>
       </c>
       <c r="N5">
-        <v>2.69839E-09</v>
+        <v>2.55504E-09</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -852,13 +852,13 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>3.88993E-11</v>
+        <v>-8.57764E-11</v>
       </c>
       <c r="M6">
-        <v>4.27294E-11</v>
+        <v>1.57559E-10</v>
       </c>
       <c r="N6">
-        <v>5.51162E-08</v>
+        <v>5.73344E-08</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -896,13 +896,13 @@
         <v>24</v>
       </c>
       <c r="L7">
-        <v>3.01008E-11</v>
+        <v>-9.491079999999999E-11</v>
       </c>
       <c r="M7">
-        <v>3.40714E-11</v>
+        <v>1.50697E-10</v>
       </c>
       <c r="N7">
-        <v>2.67085E-09</v>
+        <v>2.56166E-09</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -940,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>3.09252E-11</v>
+        <v>-9.3973E-11</v>
       </c>
       <c r="M8">
-        <v>3.47512E-11</v>
+        <v>1.50676E-10</v>
       </c>
       <c r="N8">
-        <v>6.23671E-08</v>
+        <v>6.48583E-08</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -984,13 +984,13 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <v>2.40923E-11</v>
+        <v>-1.02207E-10</v>
       </c>
       <c r="M9">
-        <v>2.64086E-11</v>
+        <v>1.45543E-10</v>
       </c>
       <c r="N9">
-        <v>1.90195E-08</v>
+        <v>1.99407E-08</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1028,13 +1028,13 @@
         <v>50</v>
       </c>
       <c r="L10">
-        <v>2.57975E-11</v>
+        <v>-1.00887E-10</v>
       </c>
       <c r="M10">
-        <v>2.72288E-11</v>
+        <v>1.4592E-10</v>
       </c>
       <c r="N10">
-        <v>1.38272E-06</v>
+        <v>1.48357E-06</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1072,13 +1072,13 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>2.04917E-11</v>
+        <v>-1.05405E-10</v>
       </c>
       <c r="M11">
-        <v>2.28842E-11</v>
+        <v>1.42428E-10</v>
       </c>
       <c r="N11">
-        <v>2.33571E-08</v>
+        <v>2.44512E-08</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1116,13 +1116,13 @@
         <v>50</v>
       </c>
       <c r="L12">
-        <v>2.2424E-11</v>
+        <v>-1.03673E-10</v>
       </c>
       <c r="M12">
-        <v>2.43027E-11</v>
+        <v>1.4329E-10</v>
       </c>
       <c r="N12">
-        <v>1.58563E-06</v>
+        <v>1.69559E-06</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1160,13 +1160,13 @@
         <v>58</v>
       </c>
       <c r="L13">
-        <v>3.41264E-11</v>
+        <v>-9.09063E-11</v>
       </c>
       <c r="M13">
-        <v>3.20079E-11</v>
+        <v>1.48606E-10</v>
       </c>
       <c r="N13">
-        <v>1.12642E-08</v>
+        <v>1.11028E-08</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1204,13 +1204,13 @@
         <v>58</v>
       </c>
       <c r="L14">
-        <v>3.52851E-11</v>
+        <v>-9.04853E-11</v>
       </c>
       <c r="M14">
-        <v>3.21741E-11</v>
+        <v>1.4837E-10</v>
       </c>
       <c r="N14">
-        <v>9.48554E-07</v>
+        <v>9.52723E-07</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1248,13 +1248,13 @@
         <v>58</v>
       </c>
       <c r="L15">
-        <v>2.62114E-11</v>
+        <v>-9.79567E-11</v>
       </c>
       <c r="M15">
-        <v>2.69892E-11</v>
+        <v>1.43773E-10</v>
       </c>
       <c r="N15">
-        <v>1.35622E-08</v>
+        <v>1.34533E-08</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1292,13 +1292,13 @@
         <v>58</v>
       </c>
       <c r="L16">
-        <v>2.81709E-11</v>
+        <v>-9.65206E-11</v>
       </c>
       <c r="M16">
-        <v>2.81127E-11</v>
+        <v>1.44409E-10</v>
       </c>
       <c r="N16">
-        <v>1.09011E-06</v>
+        <v>1.09471E-06</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1336,13 +1336,13 @@
         <v>58</v>
       </c>
       <c r="L17">
-        <v>2.9142E-11</v>
+        <v>-9.863910000000001E-11</v>
       </c>
       <c r="M17">
-        <v>3.71809E-11</v>
+        <v>1.54657E-10</v>
       </c>
       <c r="N17">
-        <v>3.55705E-09</v>
+        <v>4.03775E-09</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1380,13 +1380,13 @@
         <v>58</v>
       </c>
       <c r="L18">
-        <v>2.94821E-11</v>
+        <v>-9.824800000000001E-11</v>
       </c>
       <c r="M18">
-        <v>3.67292E-11</v>
+        <v>1.53817E-10</v>
       </c>
       <c r="N18">
-        <v>1.37267E-07</v>
+        <v>2.00437E-07</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1424,13 +1424,13 @@
         <v>58</v>
       </c>
       <c r="L19">
-        <v>2.42867E-11</v>
+        <v>-1.03685E-10</v>
       </c>
       <c r="M19">
-        <v>2.93042E-11</v>
+        <v>1.48459E-10</v>
       </c>
       <c r="N19">
-        <v>3.78635E-09</v>
+        <v>4.35671E-09</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1468,13 +1468,13 @@
         <v>58</v>
       </c>
       <c r="L20">
-        <v>2.54319E-11</v>
+        <v>-1.02344E-10</v>
       </c>
       <c r="M20">
-        <v>3.04935E-11</v>
+        <v>1.48878E-10</v>
       </c>
       <c r="N20">
-        <v>1.57054E-07</v>
+        <v>2.25322E-07</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1">
@@ -1526,13 +1526,13 @@
         <v>69</v>
       </c>
       <c r="L22" s="1">
-        <v>2.04917E-11</v>
+        <v>-1.05405E-10</v>
       </c>
       <c r="M22" s="1">
-        <v>2.28842E-11</v>
+        <v>1.42428E-10</v>
       </c>
       <c r="N22" s="1">
-        <v>2.67085E-09</v>
+        <v>2.55504E-09</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1">
@@ -1540,13 +1540,13 @@
         <v>70</v>
       </c>
       <c r="L23" s="1">
-        <v>3.95795E-11</v>
+        <v>-8.51862E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>4.4063E-11</v>
+        <v>1.59194E-10</v>
       </c>
       <c r="N23" s="1">
-        <v>1.58563E-06</v>
+        <v>1.69559E-06</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
@@ -1574,13 +1574,13 @@
         <v>75</v>
       </c>
       <c r="L28" s="1">
-        <v>2.87774E-11</v>
+        <v>-9.716640526315786E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>3.159826315789474E-11</v>
+        <v>1.489567368421053E-10</v>
       </c>
       <c r="N28" s="1">
-        <v>3.067207052631579E-07</v>
+        <v>3.264457257894738E-07</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1">
@@ -1588,13 +1588,13 @@
         <v>76</v>
       </c>
       <c r="L29" s="1">
-        <v>5.032401477373768E-12</v>
+        <v>5.624295465443105E-12</v>
       </c>
       <c r="M29" s="1">
-        <v>5.494587194322343E-12</v>
+        <v>4.51740274519849E-12</v>
       </c>
       <c r="N29" s="1">
-        <v>5.063351654761846E-07</v>
+        <v>5.311158433595562E-07</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1">
@@ -1602,13 +1602,13 @@
         <v>77</v>
       </c>
       <c r="L30" s="1">
-        <v>17.48733894435831</v>
+        <v>5.788312792071196</v>
       </c>
       <c r="M30" s="1">
-        <v>17.38888991102517</v>
+        <v>3.032694486310448</v>
       </c>
       <c r="N30" s="1">
-        <v>165.0802038426988</v>
+        <v>162.6965223928449</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1"/>

--- a/tx_fifo_timing_mux2_invz_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux2_invz_tsmc2p_meas.xlsx
@@ -676,10 +676,10 @@
         <v>24</v>
       </c>
       <c r="L2">
-        <v>-9.85221E-11</v>
+        <v>2.29866E-11</v>
       </c>
       <c r="M2">
-        <v>1.47987E-10</v>
+        <v>2.64779E-11</v>
       </c>
       <c r="N2">
         <v>2.23718E-08</v>
@@ -720,10 +720,10 @@
         <v>24</v>
       </c>
       <c r="L3">
-        <v>-9.893780000000001E-11</v>
+        <v>2.28928E-11</v>
       </c>
       <c r="M3">
-        <v>1.47893E-10</v>
+        <v>2.60622E-11</v>
       </c>
       <c r="N3">
         <v>3.73713E-09</v>
@@ -764,10 +764,10 @@
         <v>24</v>
       </c>
       <c r="L4">
-        <v>-9.78984E-11</v>
+        <v>2.30224E-11</v>
       </c>
       <c r="M4">
-        <v>1.48022E-10</v>
+        <v>2.71016E-11</v>
       </c>
       <c r="N4">
         <v>3.19356E-07</v>
@@ -808,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>-8.51862E-11</v>
+        <v>3.41943E-11</v>
       </c>
       <c r="M5">
-        <v>1.59194E-10</v>
+        <v>3.98138E-11</v>
       </c>
       <c r="N5">
         <v>2.55504E-09</v>
@@ -852,10 +852,10 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>-8.57764E-11</v>
+        <v>3.25595E-11</v>
       </c>
       <c r="M6">
-        <v>1.57559E-10</v>
+        <v>3.92236E-11</v>
       </c>
       <c r="N6">
         <v>5.73344E-08</v>
@@ -896,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="L7">
-        <v>-9.491079999999999E-11</v>
+        <v>2.56971E-11</v>
       </c>
       <c r="M7">
-        <v>1.50697E-10</v>
+        <v>3.00892E-11</v>
       </c>
       <c r="N7">
         <v>2.56166E-09</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>-9.3973E-11</v>
+        <v>2.56764E-11</v>
       </c>
       <c r="M8">
-        <v>1.50676E-10</v>
+        <v>3.1027E-11</v>
       </c>
       <c r="N8">
         <v>6.48583E-08</v>
@@ -984,10 +984,10 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <v>-1.02207E-10</v>
+        <v>2.05432E-11</v>
       </c>
       <c r="M9">
-        <v>1.45543E-10</v>
+        <v>2.27928E-11</v>
       </c>
       <c r="N9">
         <v>1.99407E-08</v>
@@ -1028,10 +1028,10 @@
         <v>50</v>
       </c>
       <c r="L10">
-        <v>-1.00887E-10</v>
+        <v>2.09196E-11</v>
       </c>
       <c r="M10">
-        <v>1.4592E-10</v>
+        <v>2.41132E-11</v>
       </c>
       <c r="N10">
         <v>1.48357E-06</v>
@@ -1072,10 +1072,10 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>-1.05405E-10</v>
+        <v>1.74279E-11</v>
       </c>
       <c r="M11">
-        <v>1.42428E-10</v>
+        <v>1.95951E-11</v>
       </c>
       <c r="N11">
         <v>2.44512E-08</v>
@@ -1116,10 +1116,10 @@
         <v>50</v>
       </c>
       <c r="L12">
-        <v>-1.03673E-10</v>
+        <v>1.82898E-11</v>
       </c>
       <c r="M12">
-        <v>1.4329E-10</v>
+        <v>2.13271E-11</v>
       </c>
       <c r="N12">
         <v>1.69559E-06</v>
@@ -1160,10 +1160,10 @@
         <v>58</v>
       </c>
       <c r="L13">
-        <v>-9.09063E-11</v>
+        <v>2.36063E-11</v>
       </c>
       <c r="M13">
-        <v>1.48606E-10</v>
+        <v>3.40937E-11</v>
       </c>
       <c r="N13">
         <v>1.11028E-08</v>
@@ -1204,10 +1204,10 @@
         <v>58</v>
       </c>
       <c r="L14">
-        <v>-9.04853E-11</v>
+        <v>2.33696E-11</v>
       </c>
       <c r="M14">
-        <v>1.4837E-10</v>
+        <v>3.45147E-11</v>
       </c>
       <c r="N14">
         <v>9.52723E-07</v>
@@ -1248,10 +1248,10 @@
         <v>58</v>
       </c>
       <c r="L15">
-        <v>-9.79567E-11</v>
+        <v>1.8773E-11</v>
       </c>
       <c r="M15">
-        <v>1.43773E-10</v>
+        <v>2.70433E-11</v>
       </c>
       <c r="N15">
         <v>1.34533E-08</v>
@@ -1292,10 +1292,10 @@
         <v>58</v>
       </c>
       <c r="L16">
-        <v>-9.65206E-11</v>
+        <v>1.9409E-11</v>
       </c>
       <c r="M16">
-        <v>1.44409E-10</v>
+        <v>2.84794E-11</v>
       </c>
       <c r="N16">
         <v>1.09471E-06</v>
@@ -1336,10 +1336,10 @@
         <v>58</v>
       </c>
       <c r="L17">
-        <v>-9.863910000000001E-11</v>
+        <v>2.96574E-11</v>
       </c>
       <c r="M17">
-        <v>1.54657E-10</v>
+        <v>2.63609E-11</v>
       </c>
       <c r="N17">
         <v>4.03775E-09</v>
@@ -1380,10 +1380,10 @@
         <v>58</v>
       </c>
       <c r="L18">
-        <v>-9.824800000000001E-11</v>
+        <v>2.88167E-11</v>
       </c>
       <c r="M18">
-        <v>1.53817E-10</v>
+        <v>2.6752E-11</v>
       </c>
       <c r="N18">
         <v>2.00437E-07</v>
@@ -1424,10 +1424,10 @@
         <v>58</v>
       </c>
       <c r="L19">
-        <v>-1.03685E-10</v>
+        <v>2.34587E-11</v>
       </c>
       <c r="M19">
-        <v>1.48459E-10</v>
+        <v>2.13149E-11</v>
       </c>
       <c r="N19">
         <v>4.35671E-09</v>
@@ -1468,10 +1468,10 @@
         <v>58</v>
       </c>
       <c r="L20">
-        <v>-1.02344E-10</v>
+        <v>2.38783E-11</v>
       </c>
       <c r="M20">
-        <v>1.48878E-10</v>
+        <v>2.26561E-11</v>
       </c>
       <c r="N20">
         <v>2.25322E-07</v>
@@ -1526,10 +1526,10 @@
         <v>69</v>
       </c>
       <c r="L22" s="1">
-        <v>-1.05405E-10</v>
+        <v>1.74279E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>1.42428E-10</v>
+        <v>1.95951E-11</v>
       </c>
       <c r="N22" s="1">
         <v>2.55504E-09</v>
@@ -1540,10 +1540,10 @@
         <v>70</v>
       </c>
       <c r="L23" s="1">
-        <v>-8.51862E-11</v>
+        <v>3.41943E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>1.59194E-10</v>
+        <v>3.98138E-11</v>
       </c>
       <c r="N23" s="1">
         <v>1.69559E-06</v>
@@ -1574,10 +1574,10 @@
         <v>75</v>
       </c>
       <c r="L28" s="1">
-        <v>-9.716640526315786E-11</v>
+        <v>2.395676842105263E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>1.489567368421053E-10</v>
+        <v>2.783360526315789E-11</v>
       </c>
       <c r="N28" s="1">
         <v>3.264457257894738E-07</v>
@@ -1588,10 +1588,10 @@
         <v>76</v>
       </c>
       <c r="L29" s="1">
-        <v>5.624295465443105E-12</v>
+        <v>4.517540887771463E-12</v>
       </c>
       <c r="M29" s="1">
-        <v>4.51740274519849E-12</v>
+        <v>5.624285392967825E-12</v>
       </c>
       <c r="N29" s="1">
         <v>5.311158433595562E-07</v>
@@ -1602,10 +1602,10 @@
         <v>77</v>
       </c>
       <c r="L30" s="1">
-        <v>5.788312792071196</v>
+        <v>18.85705454247142</v>
       </c>
       <c r="M30" s="1">
-        <v>3.032694486310448</v>
+        <v>20.2068159686537</v>
       </c>
       <c r="N30" s="1">
         <v>162.6965223928449</v>
